--- a/ToDo.xlsx
+++ b/ToDo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072DE347-1C14-48B3-A966-E3665461BEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375E4B1B-F1E8-4F41-9D8D-84DB948B0265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Tested</t>
   </si>
@@ -55,6 +55,27 @@
   </si>
   <si>
     <t>Advertise on Beamdog Forums</t>
+  </si>
+  <si>
+    <t>Fix Rohma End</t>
+  </si>
+  <si>
+    <t>Letter and Amulet -&gt; End of SoD</t>
+  </si>
+  <si>
+    <t>Hall of Wonders / Corwin Arrest Backstory</t>
+  </si>
+  <si>
+    <t>FORTHE Revisit</t>
+  </si>
+  <si>
+    <t>FORTHE BG1 Change</t>
+  </si>
+  <si>
+    <t>Gorpgang disappear</t>
+  </si>
+  <si>
+    <t>Remove Amn Emissary from Helm &amp; Cloak 2</t>
   </si>
 </sst>
 </file>
@@ -396,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,6 +452,9 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -451,6 +475,50 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/ToDo.xlsx
+++ b/ToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375E4B1B-F1E8-4F41-9D8D-84DB948B0265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931E4B90-701E-42CE-92A1-0A01058E127A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Tested</t>
   </si>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,6 +489,9 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">

--- a/ToDo.xlsx
+++ b/ToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931E4B90-701E-42CE-92A1-0A01058E127A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B8DD8F-36EB-4375-BB1B-AC22F1CBF7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Tested</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Remove Amn Emissary from Helm &amp; Cloak 2</t>
+  </si>
+  <si>
+    <t>Set Override in Player1D</t>
   </si>
 </sst>
 </file>
@@ -417,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,6 +505,12 @@
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -522,6 +531,20 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/ToDo.xlsx
+++ b/ToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B8DD8F-36EB-4375-BB1B-AC22F1CBF7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DF9726-3690-4130-A377-1566D6AB1A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="1305" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Tested</t>
   </si>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,6 +535,9 @@
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">

--- a/ToDo.xlsx
+++ b/ToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DF9726-3690-4130-A377-1566D6AB1A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19BCA33-A6C4-4377-999C-3597546AB095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5085" yWindow="1305" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Tested</t>
   </si>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,6 +450,9 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/ToDo.xlsx
+++ b/ToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19BCA33-A6C4-4377-999C-3597546AB095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231A2989-0BC0-4424-B6FB-9C03B3743B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5085" yWindow="1305" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Tested</t>
   </si>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,6 +466,9 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">

--- a/ToDo.xlsx
+++ b/ToDo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231A2989-0BC0-4424-B6FB-9C03B3743B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2259FCF8-C470-4B2A-9DBE-0B3FC324D71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="1305" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>Tested</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Set Override in Player1D</t>
+  </si>
+  <si>
+    <t>Remove Area From Map</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,6 +472,9 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -554,6 +560,11 @@
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
